--- a/Example.xlsx
+++ b/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhbas\Bass\GitHub\HydroWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DA623C-8080-4CAA-A298-8C044864CD8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0863E9E-17C9-4E18-9F0B-1A697F84347A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Sample</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -68,18 +65,6 @@
     <t>K</t>
   </si>
   <si>
-    <t>NO3</t>
-  </si>
-  <si>
-    <t>Br</t>
-  </si>
-  <si>
-    <t>CO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water type </t>
-  </si>
-  <si>
     <t>d2H</t>
   </si>
   <si>
@@ -87,9 +72,6 @@
   </si>
   <si>
     <t>D_Excess</t>
-  </si>
-  <si>
-    <t>etc.</t>
   </si>
   <si>
     <t>Ex1</t>
@@ -577,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,63 +574,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="11">
         <v>37.670817</v>
@@ -690,7 +660,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" s="11">
         <v>37.672184000000001</v>
@@ -732,7 +702,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" s="11">
         <v>37.718696000000001</v>
@@ -774,7 +744,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" s="11">
         <v>37.718696000000001</v>
@@ -816,7 +786,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="9">
         <v>37.691187999999997</v>
@@ -858,7 +828,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" s="9">
         <v>37.77675</v>
@@ -900,7 +870,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="9">
         <v>37.706783000000001</v>
@@ -942,7 +912,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9" s="9">
         <v>37.705883</v>

--- a/Example.xlsx
+++ b/Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhbas\Bass\GitHub\HydroWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0863E9E-17C9-4E18-9F0B-1A697F84347A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B599CCDC-FAC5-4DB5-B949-B5A41D645959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,6 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
     <t>Cl</t>
   </si>
   <si>
@@ -96,6 +90,12 @@
   </si>
   <si>
     <t>Ex8</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,40 +574,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -618,7 +618,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11">
         <v>37.670817</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="11">
         <v>37.672184000000001</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="11">
         <v>37.718696000000001</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="11">
         <v>37.718696000000001</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="9">
         <v>37.691187999999997</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="9">
         <v>37.77675</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="9">
         <v>37.706783000000001</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="9">
         <v>37.705883</v>

--- a/Example.xlsx
+++ b/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhbas\Bass\GitHub\HydroWorkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B599CCDC-FAC5-4DB5-B949-B5A41D645959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B07845-E7CA-49E0-8395-42E2DAB6D05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,11 +560,18 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.08984375" customWidth="1"/>
   </cols>
@@ -621,10 +628,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="11">
+        <v>26.887039000000001</v>
+      </c>
+      <c r="C2" s="11">
         <v>37.670817</v>
-      </c>
-      <c r="C2" s="11">
-        <v>26.887039000000001</v>
       </c>
       <c r="D2" s="11">
         <v>455</v>
@@ -663,10 +670,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="11">
+        <v>26.886982</v>
+      </c>
+      <c r="C3" s="11">
         <v>37.672184000000001</v>
-      </c>
-      <c r="C3" s="11">
-        <v>26.886982</v>
       </c>
       <c r="D3" s="11">
         <v>1210</v>
@@ -705,10 +712,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="11">
+        <v>26.863959999999999</v>
+      </c>
+      <c r="C4" s="11">
         <v>37.718696000000001</v>
-      </c>
-      <c r="C4" s="11">
-        <v>26.863959999999999</v>
       </c>
       <c r="D4" s="11">
         <v>10.4</v>
@@ -747,10 +754,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="11">
+        <v>26.863959999999999</v>
+      </c>
+      <c r="C5" s="11">
         <v>37.718696000000001</v>
-      </c>
-      <c r="C5" s="11">
-        <v>26.863959999999999</v>
       </c>
       <c r="D5" s="11">
         <v>14.6</v>
@@ -789,10 +796,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="9">
+        <v>26.928007000000001</v>
+      </c>
+      <c r="C6" s="9">
         <v>37.691187999999997</v>
-      </c>
-      <c r="C6" s="9">
-        <v>26.928007000000001</v>
       </c>
       <c r="D6" s="9">
         <v>245</v>
@@ -831,10 +838,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="9">
+        <v>26.870816999999999</v>
+      </c>
+      <c r="C7" s="9">
         <v>37.77675</v>
-      </c>
-      <c r="C7" s="9">
-        <v>26.870816999999999</v>
       </c>
       <c r="D7" s="9">
         <v>15.7</v>
@@ -873,10 +880,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="9">
+        <v>27.011966999999999</v>
+      </c>
+      <c r="C8" s="9">
         <v>37.706783000000001</v>
-      </c>
-      <c r="C8" s="9">
-        <v>27.011966999999999</v>
       </c>
       <c r="D8" s="9">
         <v>9750</v>
@@ -915,10 +922,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="9">
+        <v>27.004317</v>
+      </c>
+      <c r="C9" s="9">
         <v>37.705883</v>
-      </c>
-      <c r="C9" s="9">
-        <v>27.004317</v>
       </c>
       <c r="D9" s="9">
         <v>22200</v>
